--- a/Teams 目录.xlsx
+++ b/Teams 目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianming\Desktop\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D85E4E-C7E5-4EED-AAFB-387AE572159C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB91BE5-1FB8-4683-A185-6EED720DE923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{6557F0E7-666D-4ACB-9724-BEC0BA5E9F2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6557F0E7-666D-4ACB-9724-BEC0BA5E9F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,20 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>POC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Customer O&amp;M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configuration change daily check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,34 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Incident_Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post_POC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCA_Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_common_issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergency_call_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非工作时间值班表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O&amp;M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O&amp;M_Daily_record_QJ&amp;TM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O&amp;M_Weekly_Report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monthly routine check activity list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&amp;M_team_sprint_2020_old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_maintenance_window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,17 +78,6 @@
   </si>
   <si>
     <t>OPI_list_归类(目录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POC Deliver Test OPIs
-PoC_Form_template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configuration_change_record_file
-POC_Delivery_reports(Jira?)
-Pre_POC_checklist_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,33 +273,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Work Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW POC DELIVERY FLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONLINE CUS CONFIGURATION CHANGE FLOW</t>
-  </si>
-  <si>
-    <t>Post POC Work Flow</t>
-  </si>
-  <si>
-    <t>Private_line_and_last_mile_selection_workflow</t>
-  </si>
-  <si>
-    <t>Public_Cloud_node_issue_handling_workflow</t>
-  </si>
-  <si>
-    <t>shared_node_configuration_workflow</t>
-  </si>
-  <si>
-    <t>客户问题判定flow</t>
-  </si>
-  <si>
     <t>Framework_O&amp;M_PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configuration_change_record_file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POC_Delivery_reports
+- ADAS POC Delivery Test Report
+- ANOS L3 POC Delivery Test Report
+- ANOS L7 POC Delivery Test Report
+- ASAS POC Delivery Test Report
+- NAAS POC Delivery Test Report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Pre_POC_checklist_report</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>checklist_for_online_customer_configuration_PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC Deliver Test OPIs
+- ADAS
+- ANOS L3
+- ANOS L7
+- ASAS
+- NAAS
+PoC_Form_template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incident_Report
+O&amp;M_workflow
+- NEW POC DELIVERY FLOW
+- ONLINE CUS CONFIGURATION CHANGE FLOW
+- Post POC Work Flow
+- Private_line_and_last_mile_selection_workflow
+- Public_Cloud_node_issue_handling_workflow
+- shared_node_configuration_workflow
+- 客户问题判定flow
+Post_POC
+RCA_Report
+emergency_call_record
+Monthly routine check activity list
+system_maintenance_window
+非工作时间值班表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,16 +384,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -473,19 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -516,17 +498,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,47 +541,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7A0ACF-CA9F-4A9B-8CAE-DA1D7DD8D6B0}">
-  <dimension ref="A2:D54"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,441 +882,325 @@
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
+      <c r="C36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A35:A45"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A25:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="https://teams.microsoft.com/l/file/47E691F7-62C9-44FD-8894-2A70B4484ED5?tenantId=29344a7a-72ee-48ce-afce-70e81625813e&amp;fileType=xlsx&amp;objectUrl=https%3A%2F%2Faxesdn.sharepoint.com%2Fsites%2Fmsteams_6fef6e%2FShared%20Documents%2FGeneral%2FOPI%2FOPI_list_%E5%BD%92%E7%B1%BB.xlsx&amp;baseUrl=https%3A%2F%2Faxesdn.sharepoint.com%2Fsites%2Fmsteams_6fef6e&amp;serviceName=teams&amp;threadId=19:a2e393682c97401797f65e1337531af5@thread.skype&amp;groupId=351f9ed3-5fb5-4e69-9a53-7034051c04c2" xr:uid="{6B42A152-ACE3-4230-88D8-B0F4850E3B92}"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://teams.microsoft.com/l/file/47E691F7-62C9-44FD-8894-2A70B4484ED5?tenantId=29344a7a-72ee-48ce-afce-70e81625813e&amp;fileType=xlsx&amp;objectUrl=https%3A%2F%2Faxesdn.sharepoint.com%2Fsites%2Fmsteams_6fef6e%2FShared%20Documents%2FGeneral%2FOPI%2FOPI_list_%E5%BD%92%E7%B1%BB.xlsx&amp;baseUrl=https%3A%2F%2Faxesdn.sharepoint.com%2Fsites%2Fmsteams_6fef6e&amp;serviceName=teams&amp;threadId=19:a2e393682c97401797f65e1337531af5@thread.skype&amp;groupId=351f9ed3-5fb5-4e69-9a53-7034051c04c2" xr:uid="{6B42A152-ACE3-4230-88D8-B0F4850E3B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>